--- a/fine-scale/lineages_for_analyses.xlsx
+++ b/fine-scale/lineages_for_analyses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>Bruce's Choice 16 Clades</t>
   </si>
@@ -527,6 +527,9 @@
     <t>Vargas et al 1999</t>
   </si>
   <si>
+    <t>Vargas et al. 1999</t>
+  </si>
+  <si>
     <t>Asterids—Campanulids / Asterales</t>
   </si>
   <si>
@@ -666,6 +669,9 @@
   </si>
   <si>
     <t>Boykin et al. 2010</t>
+  </si>
+  <si>
+    <t>trnL intron, ITS1, ITS2</t>
   </si>
 </sst>
 </file>
@@ -931,7 +937,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1032,9 +1038,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3302,7 +3305,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="34"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -3858,8 +3861,12 @@
       </c>
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
+      <c r="U30" t="s" s="18">
+        <v>59</v>
+      </c>
+      <c r="V30" t="s" s="18">
+        <v>171</v>
+      </c>
       <c r="W30" s="19"/>
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
@@ -3872,16 +3879,16 @@
         <v>68</v>
       </c>
       <c r="C31" t="s" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E31" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s" s="10">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="7"/>
@@ -3893,7 +3900,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="35"/>
+      <c r="Q31" s="34"/>
       <c r="R31" s="9"/>
       <c r="S31" s="11"/>
       <c r="T31" s="7"/>
@@ -3911,16 +3918,16 @@
         <v>68</v>
       </c>
       <c r="C32" t="s" s="31">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D32" t="s" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s" s="10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="12"/>
@@ -3932,7 +3939,7 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="36"/>
+      <c r="Q32" s="35"/>
       <c r="R32" s="9"/>
       <c r="S32" s="16"/>
       <c r="T32" s="12"/>
@@ -3952,19 +3959,19 @@
         <v>68</v>
       </c>
       <c r="C33" t="s" s="18">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s" s="18">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E33" t="s" s="18">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F33" t="s" s="18">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G33" t="s" s="18">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s" s="18">
         <v>58</v>
@@ -3993,7 +4000,7 @@
         <v>30</v>
       </c>
       <c r="R33" t="s" s="18">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S33" s="18">
         <v>67</v>
@@ -4002,10 +4009,10 @@
         <v>1651</v>
       </c>
       <c r="U33" t="s" s="18">
+        <v>181</v>
+      </c>
+      <c r="V33" t="s" s="18">
         <v>180</v>
-      </c>
-      <c r="V33" t="s" s="18">
-        <v>179</v>
       </c>
       <c r="W33" s="19"/>
       <c r="X33" s="19"/>
@@ -4019,16 +4026,16 @@
         <v>68</v>
       </c>
       <c r="C34" t="s" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="7"/>
@@ -4040,7 +4047,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
-      <c r="Q34" s="35"/>
+      <c r="Q34" s="34"/>
       <c r="R34" s="9"/>
       <c r="S34" s="11"/>
       <c r="T34" s="7"/>
@@ -4058,16 +4065,16 @@
         <v>68</v>
       </c>
       <c r="C35" t="s" s="29">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E35" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F35" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="27"/>
@@ -4079,7 +4086,7 @@
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
       <c r="P35" s="27"/>
-      <c r="Q35" s="37"/>
+      <c r="Q35" s="36"/>
       <c r="R35" s="9"/>
       <c r="S35" s="30"/>
       <c r="T35" s="27"/>
@@ -4097,16 +4104,16 @@
         <v>68</v>
       </c>
       <c r="C36" t="s" s="29">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s" s="10">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G36" s="30"/>
       <c r="H36" s="27"/>
@@ -4118,7 +4125,7 @@
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
       <c r="P36" s="27"/>
-      <c r="Q36" s="37"/>
+      <c r="Q36" s="36"/>
       <c r="R36" s="9"/>
       <c r="S36" s="30"/>
       <c r="T36" s="27"/>
@@ -4136,16 +4143,16 @@
         <v>68</v>
       </c>
       <c r="C37" t="s" s="31">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F37" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G37" s="30"/>
       <c r="H37" s="27"/>
@@ -4157,7 +4164,7 @@
       <c r="N37" s="27"/>
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
-      <c r="Q37" s="37"/>
+      <c r="Q37" s="36"/>
       <c r="R37" s="9"/>
       <c r="S37" s="30"/>
       <c r="T37" s="27"/>
@@ -4172,19 +4179,19 @@
     <row r="38" ht="15.5" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" t="s" s="31">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="12"/>
@@ -4196,7 +4203,7 @@
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
-      <c r="Q38" s="36"/>
+      <c r="Q38" s="35"/>
       <c r="R38" s="9"/>
       <c r="S38" s="16"/>
       <c r="T38" s="12"/>
@@ -4213,34 +4220,34 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="18">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s" s="18">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s" s="18">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s" s="18">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s" s="18">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G39" t="s" s="18">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H39" t="s" s="18">
         <v>30</v>
       </c>
       <c r="I39" t="s" s="18">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J39" t="s" s="18">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K39" t="s" s="18">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L39" t="s" s="22">
         <v>30</v>
@@ -4259,7 +4266,7 @@
         <v>30</v>
       </c>
       <c r="R39" t="s" s="18">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S39" s="18">
         <v>81</v>
@@ -4268,10 +4275,10 @@
         <v>3164</v>
       </c>
       <c r="U39" t="s" s="18">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V39" t="s" s="18">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W39" s="19"/>
       <c r="X39" s="19"/>
@@ -4284,22 +4291,22 @@
         <v>30</v>
       </c>
       <c r="B40" t="s" s="18">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s" s="18">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D40" t="s" s="18">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E40" t="s" s="18">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F40" t="s" s="18">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G40" t="s" s="18">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H40" t="s" s="18">
         <v>58</v>
@@ -4325,10 +4332,10 @@
         <v>30</v>
       </c>
       <c r="Q40" t="s" s="22">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R40" t="s" s="18">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S40" s="18">
         <v>73</v>
@@ -4337,10 +4344,10 @@
         <v>2671</v>
       </c>
       <c r="U40" t="s" s="18">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V40" t="s" s="18">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W40" s="19"/>
       <c r="X40" s="19"/>
@@ -4351,19 +4358,19 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" t="s" s="15">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s" s="10">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E41" t="s" s="10">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s" s="10">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="14"/>
@@ -4388,59 +4395,63 @@
       <c r="AA41" s="14"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="38">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s" s="39">
-        <v>192</v>
-      </c>
-      <c r="C42" t="s" s="39">
-        <v>213</v>
-      </c>
-      <c r="D42" t="s" s="39">
+      <c r="A42" t="s" s="37">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s" s="38">
+        <v>193</v>
+      </c>
+      <c r="C42" t="s" s="38">
         <v>214</v>
       </c>
-      <c r="E42" t="s" s="39">
+      <c r="D42" t="s" s="38">
         <v>215</v>
       </c>
-      <c r="F42" t="s" s="39">
+      <c r="E42" t="s" s="38">
         <v>216</v>
       </c>
-      <c r="G42" t="s" s="39">
+      <c r="F42" t="s" s="38">
         <v>217</v>
       </c>
-      <c r="H42" t="s" s="39">
+      <c r="G42" t="s" s="38">
+        <v>218</v>
+      </c>
+      <c r="H42" t="s" s="38">
         <v>58</v>
       </c>
-      <c r="I42" t="s" s="39">
+      <c r="I42" t="s" s="38">
         <v>46</v>
       </c>
-      <c r="J42" t="s" s="39">
+      <c r="J42" t="s" s="38">
         <v>46</v>
       </c>
-      <c r="K42" s="40"/>
-      <c r="L42" t="s" s="41">
+      <c r="K42" s="39"/>
+      <c r="L42" t="s" s="40">
         <v>36</v>
       </c>
-      <c r="M42" s="40"/>
-      <c r="N42" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" t="s" s="39">
-        <v>215</v>
-      </c>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="43"/>
+      <c r="M42" s="39"/>
+      <c r="N42" t="s" s="41">
+        <v>30</v>
+      </c>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" t="s" s="38">
+        <v>216</v>
+      </c>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" t="s" s="38">
+        <v>219</v>
+      </c>
+      <c r="V42" t="s" s="38">
+        <v>218</v>
+      </c>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4462,12 +4473,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="44" customWidth="1"/>
-    <col min="6" max="256" width="10.875" style="44" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="43" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="43" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="43" customWidth="1"/>
+    <col min="6" max="256" width="10.875" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.65" customHeight="1">

--- a/fine-scale/lineages_for_analyses.xlsx
+++ b/fine-scale/lineages_for_analyses.xlsx
@@ -937,7 +937,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1062,6 +1062,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2552,7 +2555,9 @@
       <c r="O4" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="P4" s="19"/>
+      <c r="P4" t="s" s="22">
+        <v>30</v>
+      </c>
       <c r="Q4" s="19"/>
       <c r="R4" t="s" s="18">
         <v>31</v>
@@ -3011,7 +3016,9 @@
       <c r="O13" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="P13" s="19"/>
+      <c r="P13" t="s" s="22">
+        <v>30</v>
+      </c>
       <c r="Q13" s="19"/>
       <c r="R13" t="s" s="18">
         <v>80</v>
@@ -3853,14 +3860,22 @@
       <c r="N30" t="s" s="21">
         <v>30</v>
       </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+      <c r="O30" t="s" s="22">
+        <v>30</v>
+      </c>
+      <c r="P30" t="s" s="22">
+        <v>30</v>
+      </c>
       <c r="Q30" s="19"/>
       <c r="R30" t="s" s="18">
         <v>168</v>
       </c>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
+      <c r="S30" s="19">
+        <v>54</v>
+      </c>
+      <c r="T30" s="19">
+        <v>633</v>
+      </c>
       <c r="U30" t="s" s="18">
         <v>59</v>
       </c>
@@ -4433,14 +4448,22 @@
       <c r="N42" t="s" s="41">
         <v>30</v>
       </c>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
+      <c r="O42" t="s" s="42">
+        <v>30</v>
+      </c>
+      <c r="P42" t="s" s="42">
+        <v>30</v>
+      </c>
       <c r="Q42" s="39"/>
       <c r="R42" t="s" s="38">
         <v>216</v>
       </c>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
+      <c r="S42" s="39">
+        <v>41</v>
+      </c>
+      <c r="T42" s="39">
+        <v>1136</v>
+      </c>
       <c r="U42" t="s" s="38">
         <v>219</v>
       </c>
@@ -4451,7 +4474,7 @@
       <c r="X42" s="39"/>
       <c r="Y42" s="39"/>
       <c r="Z42" s="39"/>
-      <c r="AA42" s="42"/>
+      <c r="AA42" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4473,12 +4496,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="43" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="43" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="43" customWidth="1"/>
-    <col min="6" max="256" width="10.875" style="43" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="44" customWidth="1"/>
+    <col min="6" max="256" width="10.875" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.65" customHeight="1">

--- a/fine-scale/lineages_for_analyses.xlsx
+++ b/fine-scale/lineages_for_analyses.xlsx
@@ -2558,7 +2558,9 @@
       <c r="P4" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" t="s" s="22">
+        <v>30</v>
+      </c>
       <c r="R4" t="s" s="18">
         <v>31</v>
       </c>
@@ -3019,7 +3021,9 @@
       <c r="P13" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="Q13" s="19"/>
+      <c r="Q13" t="s" s="22">
+        <v>30</v>
+      </c>
       <c r="R13" t="s" s="18">
         <v>80</v>
       </c>
@@ -3866,7 +3870,9 @@
       <c r="P30" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="Q30" s="19"/>
+      <c r="Q30" t="s" s="22">
+        <v>30</v>
+      </c>
       <c r="R30" t="s" s="18">
         <v>168</v>
       </c>
@@ -4454,7 +4460,9 @@
       <c r="P42" t="s" s="42">
         <v>30</v>
       </c>
-      <c r="Q42" s="39"/>
+      <c r="Q42" t="s" s="42">
+        <v>30</v>
+      </c>
       <c r="R42" t="s" s="38">
         <v>216</v>
       </c>
